--- a/DataCW3M/Reservoirs/DataSources/Blue_River_rules.xlsx
+++ b/DataCW3M/Reservoirs/DataSources/Blue_River_rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\Reservoirs\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48842677-3443-4DA6-9BD3-D25EEA2399A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C65E4BF-674A-41F4-B3FF-3EB3486FD29E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conservation Zone" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="91">
   <si>
     <t>Date</t>
   </si>
@@ -274,12 +274,6 @@
   </si>
   <si>
     <t>Special Curves BLU Normal</t>
-  </si>
-  <si>
-    <t>FoodDcrsRate_Blue</t>
-  </si>
-  <si>
-    <t>FllodIncrsRate_Blue</t>
   </si>
   <si>
     <t>MaxEvacuation Release</t>
@@ -809,7 +803,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -831,6 +825,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5487,8 +5482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF136B8-7CCD-4F9D-AD56-9842998E6064}">
   <dimension ref="A1:T96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N94" sqref="N94:T94"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P92" sqref="P92:Q93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5503,7 +5498,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G1"/>
       <c r="H1"/>
@@ -5514,7 +5509,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
@@ -5525,7 +5520,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
@@ -5571,27 +5566,27 @@
         <v>1</v>
       </c>
       <c r="D5" s="6">
-        <f>A5*35.315</f>
+        <f t="shared" ref="D5:E12" si="0">A5*35.315</f>
         <v>105.94499999999999</v>
       </c>
       <c r="E5" s="6">
-        <f>B5*35.315</f>
+        <f t="shared" si="0"/>
         <v>35.314999999999998</v>
       </c>
       <c r="G5" s="5">
-        <f>D5</f>
+        <f t="shared" ref="G5:G12" si="1">D5</f>
         <v>105.94499999999999</v>
       </c>
       <c r="H5" s="5">
-        <f>K5</f>
+        <f t="shared" ref="H5:H12" si="2">K5</f>
         <v>100</v>
       </c>
       <c r="I5" s="2">
-        <f>E5</f>
+        <f t="shared" ref="I5:I12" si="3">E5</f>
         <v>35.314999999999998</v>
       </c>
       <c r="J5" s="2">
-        <f>L5</f>
+        <f t="shared" ref="J5:J12" si="4">L5</f>
         <v>50</v>
       </c>
       <c r="K5" s="2">
@@ -5628,27 +5623,27 @@
         <v>5</v>
       </c>
       <c r="D6" s="6">
-        <f>A6*35.315</f>
+        <f t="shared" si="0"/>
         <v>353.15</v>
       </c>
       <c r="E6" s="6">
-        <f>B6*35.315</f>
+        <f t="shared" si="0"/>
         <v>176.57499999999999</v>
       </c>
       <c r="G6" s="5">
-        <f>D6</f>
+        <f t="shared" si="1"/>
         <v>353.15</v>
       </c>
       <c r="H6" s="5">
-        <f>K6</f>
+        <f t="shared" si="2"/>
         <v>350</v>
       </c>
       <c r="I6" s="2">
-        <f>E6</f>
+        <f t="shared" si="3"/>
         <v>176.57499999999999</v>
       </c>
       <c r="J6" s="2">
-        <f>L6</f>
+        <f t="shared" si="4"/>
         <v>175</v>
       </c>
       <c r="K6" s="2">
@@ -5661,19 +5656,19 @@
         <v>17</v>
       </c>
       <c r="P6">
-        <f t="shared" ref="P6:P12" si="0">ROUND(K6/35.315, 4)</f>
+        <f t="shared" ref="P6:P12" si="5">ROUND(K6/35.315, 4)</f>
         <v>9.9108000000000001</v>
       </c>
       <c r="Q6">
-        <f t="shared" ref="Q6:Q12" si="1">ROUND(L6/35.315, 4)</f>
+        <f t="shared" ref="Q6:Q12" si="6">ROUND(L6/35.315, 4)</f>
         <v>4.9554</v>
       </c>
       <c r="S6" s="4">
-        <f t="shared" ref="S6:S12" si="2">35.315*P6</f>
+        <f t="shared" ref="S6:S12" si="7">35.315*P6</f>
         <v>349.99990199999996</v>
       </c>
       <c r="T6" s="4">
-        <f t="shared" ref="T6:T12" si="3">35.315*Q6</f>
+        <f t="shared" ref="T6:T12" si="8">35.315*Q6</f>
         <v>174.99995099999998</v>
       </c>
     </row>
@@ -5685,27 +5680,27 @@
         <v>12</v>
       </c>
       <c r="D7" s="6">
-        <f>A7*35.315</f>
+        <f t="shared" si="0"/>
         <v>847.56</v>
       </c>
       <c r="E7" s="6">
-        <f>B7*35.315</f>
+        <f t="shared" si="0"/>
         <v>423.78</v>
       </c>
       <c r="G7" s="5">
-        <f>D7</f>
+        <f t="shared" si="1"/>
         <v>847.56</v>
       </c>
       <c r="H7" s="5">
-        <f>K7</f>
+        <f t="shared" si="2"/>
         <v>850</v>
       </c>
       <c r="I7" s="2">
-        <f>E7</f>
+        <f t="shared" si="3"/>
         <v>423.78</v>
       </c>
       <c r="J7" s="2">
-        <f>L7</f>
+        <f t="shared" si="4"/>
         <v>425</v>
       </c>
       <c r="K7" s="2">
@@ -5718,19 +5713,19 @@
         <v>16</v>
       </c>
       <c r="P7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>24.069099999999999</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>12.0345</v>
       </c>
       <c r="S7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>850.00026649999995</v>
       </c>
       <c r="T7" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>424.99836749999997</v>
       </c>
     </row>
@@ -5742,27 +5737,27 @@
         <v>24</v>
       </c>
       <c r="D8" s="6">
-        <f>A8*35.315</f>
+        <f t="shared" si="0"/>
         <v>1483.23</v>
       </c>
       <c r="E8" s="6">
-        <f>B8*35.315</f>
+        <f t="shared" si="0"/>
         <v>847.56</v>
       </c>
       <c r="G8" s="5">
-        <f>D8</f>
+        <f t="shared" si="1"/>
         <v>1483.23</v>
       </c>
       <c r="H8" s="5">
-        <f>K8</f>
+        <f t="shared" si="2"/>
         <v>1500</v>
       </c>
       <c r="I8" s="2">
-        <f>E8</f>
+        <f t="shared" si="3"/>
         <v>847.56</v>
       </c>
       <c r="J8" s="2">
-        <f>L8</f>
+        <f t="shared" si="4"/>
         <v>850</v>
       </c>
       <c r="K8" s="2">
@@ -5775,19 +5770,19 @@
         <v>15</v>
       </c>
       <c r="P8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>42.474899999999998</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>24.069099999999999</v>
       </c>
       <c r="S8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1500.0010934999998</v>
       </c>
       <c r="T8" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>850.00026649999995</v>
       </c>
     </row>
@@ -5799,27 +5794,27 @@
         <v>42</v>
       </c>
       <c r="D9" s="6">
-        <f>A9*35.315</f>
+        <f t="shared" si="0"/>
         <v>2436.7349999999997</v>
       </c>
       <c r="E9" s="6">
-        <f>B9*35.315</f>
+        <f t="shared" si="0"/>
         <v>1483.23</v>
       </c>
       <c r="G9" s="5">
-        <f>D9</f>
+        <f t="shared" si="1"/>
         <v>2436.7349999999997</v>
       </c>
       <c r="H9" s="5">
-        <f>K9</f>
+        <f t="shared" si="2"/>
         <v>2450</v>
       </c>
       <c r="I9" s="2">
-        <f>E9</f>
+        <f t="shared" si="3"/>
         <v>1483.23</v>
       </c>
       <c r="J9" s="2">
-        <f>L9</f>
+        <f t="shared" si="4"/>
         <v>1500</v>
       </c>
       <c r="K9" s="2">
@@ -5829,19 +5824,19 @@
         <v>1500</v>
       </c>
       <c r="P9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>69.375600000000006</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>42.474899999999998</v>
       </c>
       <c r="S9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2449.9993140000001</v>
       </c>
       <c r="T9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1500.0010934999998</v>
       </c>
     </row>
@@ -5853,27 +5848,27 @@
         <v>69</v>
       </c>
       <c r="D10" s="6">
-        <f>A10*35.315</f>
+        <f t="shared" si="0"/>
         <v>3637.4449999999997</v>
       </c>
       <c r="E10" s="6">
-        <f>B10*35.315</f>
+        <f t="shared" si="0"/>
         <v>2436.7349999999997</v>
       </c>
       <c r="G10" s="5">
-        <f>D10</f>
+        <f t="shared" si="1"/>
         <v>3637.4449999999997</v>
       </c>
       <c r="H10" s="5">
-        <f>K10</f>
+        <f t="shared" si="2"/>
         <v>3650</v>
       </c>
       <c r="I10" s="2">
-        <f>E10</f>
+        <f t="shared" si="3"/>
         <v>2436.7349999999997</v>
       </c>
       <c r="J10" s="2">
-        <f>L10</f>
+        <f t="shared" si="4"/>
         <v>2450</v>
       </c>
       <c r="K10" s="2">
@@ -5883,19 +5878,19 @@
         <v>2450</v>
       </c>
       <c r="P10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>103.35550000000001</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>69.375600000000006</v>
       </c>
       <c r="S10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>3649.9994824999999</v>
       </c>
       <c r="T10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2449.9993140000001</v>
       </c>
     </row>
@@ -5907,27 +5902,27 @@
         <v>103</v>
       </c>
       <c r="D11" s="6">
-        <f>A11*35.315</f>
+        <f t="shared" si="0"/>
         <v>5050.0450000000001</v>
       </c>
       <c r="E11" s="6">
-        <f>B11*35.315</f>
+        <f t="shared" si="0"/>
         <v>3637.4449999999997</v>
       </c>
       <c r="G11" s="5">
-        <f>D11</f>
+        <f t="shared" si="1"/>
         <v>5050.0450000000001</v>
       </c>
       <c r="H11" s="5">
-        <f>K11</f>
+        <f t="shared" si="2"/>
         <v>5050</v>
       </c>
       <c r="I11" s="2">
-        <f>E11</f>
+        <f t="shared" si="3"/>
         <v>3637.4449999999997</v>
       </c>
       <c r="J11" s="2">
-        <f>L11</f>
+        <f t="shared" si="4"/>
         <v>3650</v>
       </c>
       <c r="K11" s="2">
@@ -5937,19 +5932,19 @@
         <v>3650</v>
       </c>
       <c r="P11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>142.99870000000001</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>103.35550000000001</v>
       </c>
       <c r="S11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>5049.9990905000004</v>
       </c>
       <c r="T11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3649.9994824999999</v>
       </c>
     </row>
@@ -5961,27 +5956,27 @@
         <v>143</v>
       </c>
       <c r="D12" s="6">
-        <f>A12*35.315</f>
+        <f t="shared" si="0"/>
         <v>6745.165</v>
       </c>
       <c r="E12" s="6">
-        <f>B12*35.315</f>
+        <f t="shared" si="0"/>
         <v>5050.0450000000001</v>
       </c>
       <c r="G12" s="5">
-        <f>D12</f>
+        <f t="shared" si="1"/>
         <v>6745.165</v>
       </c>
       <c r="H12" s="5">
-        <f>K12</f>
+        <f t="shared" si="2"/>
         <v>6750</v>
       </c>
       <c r="I12" s="2">
-        <f>E12</f>
+        <f t="shared" si="3"/>
         <v>5050.0450000000001</v>
       </c>
       <c r="J12" s="2">
-        <f>L12</f>
+        <f t="shared" si="4"/>
         <v>5050</v>
       </c>
       <c r="K12" s="2">
@@ -5991,19 +5986,19 @@
         <v>5050</v>
       </c>
       <c r="P12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>191.1369</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>142.99870000000001</v>
       </c>
       <c r="S12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>6749.9996234999999</v>
       </c>
       <c r="T12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>5049.9990905000004</v>
       </c>
     </row>
@@ -6078,19 +6073,19 @@
         <v>14</v>
       </c>
       <c r="P18">
-        <f t="shared" ref="P18:P19" si="4">ROUND(K18/35.315, 4)</f>
+        <f t="shared" ref="P18:P19" si="9">ROUND(K18/35.315, 4)</f>
         <v>0.28320000000000001</v>
       </c>
       <c r="Q18">
-        <f t="shared" ref="Q18:Q19" si="5">ROUND(L18/35.315, 4)</f>
+        <f t="shared" ref="Q18:Q19" si="10">ROUND(L18/35.315, 4)</f>
         <v>5.6599999999999998E-2</v>
       </c>
       <c r="S18" s="4">
-        <f t="shared" ref="S18:S19" si="6">35.315*P18</f>
+        <f t="shared" ref="S18:S19" si="11">35.315*P18</f>
         <v>10.001208</v>
       </c>
       <c r="T18" s="4">
-        <f t="shared" ref="T18:T19" si="7">35.315*Q18</f>
+        <f t="shared" ref="T18:T19" si="12">35.315*Q18</f>
         <v>1.9988289999999997</v>
       </c>
     </row>
@@ -6135,19 +6130,19 @@
         <v>13</v>
       </c>
       <c r="P19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>283165.76530000003</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5663.3158999999996</v>
       </c>
       <c r="S19" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>9999999.0015695002</v>
       </c>
       <c r="T19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>200000.00100849997</v>
       </c>
     </row>
@@ -6198,27 +6193,27 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D28" s="6">
-        <f t="shared" ref="D28:D38" si="8">A28*35.315</f>
+        <f t="shared" ref="D28:D38" si="13">A28*35.315</f>
         <v>0</v>
       </c>
       <c r="E28" s="6">
-        <f t="shared" ref="E28:E38" si="9">B28*35.315</f>
+        <f t="shared" ref="E28:E38" si="14">B28*35.315</f>
         <v>0</v>
       </c>
       <c r="G28" s="5">
-        <f t="shared" ref="G28:G38" si="10">D28</f>
+        <f t="shared" ref="G28:G38" si="15">D28</f>
         <v>0</v>
       </c>
       <c r="H28" s="5">
-        <f t="shared" ref="H28:H38" si="11">K28</f>
+        <f t="shared" ref="H28:H38" si="16">K28</f>
         <v>5</v>
       </c>
       <c r="I28" s="2">
-        <f t="shared" ref="I28:I38" si="12">E28</f>
+        <f t="shared" ref="I28:I38" si="17">E28</f>
         <v>0</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" ref="J28:J38" si="13">L28</f>
+        <f t="shared" ref="J28:J38" si="18">L28</f>
         <v>5</v>
       </c>
       <c r="K28" s="2">
@@ -6231,19 +6226,19 @@
         <v>38</v>
       </c>
       <c r="P28">
-        <f>ROUND(K28/35.315, 4)</f>
+        <f t="shared" ref="P28:Q34" si="19">ROUND(K28/35.315, 4)</f>
         <v>0.1416</v>
       </c>
       <c r="Q28">
-        <f>ROUND(L28/35.315, 4)</f>
+        <f t="shared" si="19"/>
         <v>0.1416</v>
       </c>
       <c r="S28" s="4">
-        <f t="shared" ref="S28:S29" si="14">35.315*P28</f>
+        <f t="shared" ref="S28:S29" si="20">35.315*P28</f>
         <v>5.000604</v>
       </c>
       <c r="T28" s="4">
-        <f t="shared" ref="T28:T29" si="15">35.315*Q28</f>
+        <f t="shared" ref="T28:T29" si="21">35.315*Q28</f>
         <v>5.000604</v>
       </c>
     </row>
@@ -6255,27 +6250,27 @@
         <v>0.1</v>
       </c>
       <c r="D29" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>34.961849999999998</v>
       </c>
       <c r="E29" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3.5314999999999999</v>
       </c>
       <c r="G29" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>34.961849999999998</v>
       </c>
       <c r="H29" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>50</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3.5314999999999999</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="K29" s="2">
@@ -6288,19 +6283,19 @@
         <v>40</v>
       </c>
       <c r="P29">
-        <f>ROUND(K29/35.315, 4)</f>
+        <f t="shared" si="19"/>
         <v>1.4157999999999999</v>
       </c>
       <c r="Q29">
-        <f>ROUND(L29/35.315, 4)</f>
+        <f t="shared" si="19"/>
         <v>1.4157999999999999</v>
       </c>
       <c r="S29" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>49.998976999999996</v>
       </c>
       <c r="T29" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>49.998976999999996</v>
       </c>
     </row>
@@ -6312,27 +6307,27 @@
         <v>1</v>
       </c>
       <c r="D30" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>35.314999999999998</v>
       </c>
       <c r="E30" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>35.314999999999998</v>
       </c>
       <c r="G30" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>35.314999999999998</v>
       </c>
       <c r="H30" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
       <c r="I30" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>35.314999999999998</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="K30" s="2">
@@ -6345,19 +6340,19 @@
         <v>41</v>
       </c>
       <c r="P30">
-        <f>ROUND(K30/35.315, 4)</f>
+        <f t="shared" si="19"/>
         <v>2.8317000000000001</v>
       </c>
       <c r="Q30">
-        <f>ROUND(L30/35.315, 4)</f>
+        <f t="shared" si="19"/>
         <v>2.8317000000000001</v>
       </c>
       <c r="S30" s="4">
-        <f t="shared" ref="S30:S34" si="16">35.315*P30</f>
+        <f t="shared" ref="S30:S34" si="22">35.315*P30</f>
         <v>100.0014855</v>
       </c>
       <c r="T30" s="4">
-        <f t="shared" ref="T30:T34" si="17">35.315*Q30</f>
+        <f t="shared" ref="T30:T34" si="23">35.315*Q30</f>
         <v>100.0014855</v>
       </c>
     </row>
@@ -6369,27 +6364,27 @@
         <v>3</v>
       </c>
       <c r="D31" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>105.59184999999999</v>
       </c>
       <c r="E31" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>105.94499999999999</v>
       </c>
       <c r="G31" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>105.59184999999999</v>
       </c>
       <c r="H31" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>500</v>
       </c>
       <c r="I31" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>105.94499999999999</v>
       </c>
       <c r="J31" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>200</v>
       </c>
       <c r="K31" s="2">
@@ -6402,19 +6397,19 @@
         <v>42</v>
       </c>
       <c r="P31">
-        <f>ROUND(K31/35.315, 4)</f>
+        <f t="shared" si="19"/>
         <v>14.158300000000001</v>
       </c>
       <c r="Q31">
-        <f>ROUND(L31/35.315, 4)</f>
+        <f t="shared" si="19"/>
         <v>5.6632999999999996</v>
       </c>
       <c r="S31" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>500.00036449999999</v>
       </c>
       <c r="T31" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>199.99943949999997</v>
       </c>
     </row>
@@ -6426,27 +6421,27 @@
         <v>3</v>
       </c>
       <c r="D32" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>105.94499999999999</v>
       </c>
       <c r="E32" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>105.94499999999999</v>
       </c>
       <c r="G32" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>105.94499999999999</v>
       </c>
       <c r="H32" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1000</v>
       </c>
       <c r="I32" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>105.94499999999999</v>
       </c>
       <c r="J32" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>400</v>
       </c>
       <c r="K32" s="2">
@@ -6456,19 +6451,19 @@
         <v>400</v>
       </c>
       <c r="P32">
-        <f>ROUND(K32/35.315, 4)</f>
+        <f t="shared" si="19"/>
         <v>28.316600000000001</v>
       </c>
       <c r="Q32">
-        <f>ROUND(L32/35.315, 4)</f>
+        <f t="shared" si="19"/>
         <v>11.326599999999999</v>
       </c>
       <c r="S32" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>1000.000729</v>
       </c>
       <c r="T32" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>399.99887899999993</v>
       </c>
     </row>
@@ -6480,27 +6475,27 @@
         <v>3</v>
       </c>
       <c r="D33" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>494.05685</v>
       </c>
       <c r="E33" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>105.94499999999999</v>
       </c>
       <c r="G33" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>494.05685</v>
       </c>
       <c r="H33" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>2000</v>
       </c>
       <c r="I33" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>105.94499999999999</v>
       </c>
       <c r="J33" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>600</v>
       </c>
       <c r="K33" s="2">
@@ -6510,19 +6505,19 @@
         <v>600</v>
       </c>
       <c r="P33">
-        <f>ROUND(K33/35.315, 4)</f>
+        <f t="shared" si="19"/>
         <v>56.633200000000002</v>
       </c>
       <c r="Q33">
-        <f>ROUND(L33/35.315, 4)</f>
+        <f t="shared" si="19"/>
         <v>16.989899999999999</v>
       </c>
       <c r="S33" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>2000.001458</v>
       </c>
       <c r="T33" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>599.99831849999987</v>
       </c>
     </row>
@@ -6534,27 +6529,27 @@
         <v>6</v>
       </c>
       <c r="D34" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>494.40999999999997</v>
       </c>
       <c r="E34" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>211.89</v>
       </c>
       <c r="G34" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>494.40999999999997</v>
       </c>
       <c r="H34" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>999999</v>
       </c>
       <c r="I34" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>211.89</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>600</v>
       </c>
       <c r="K34" s="2">
@@ -6564,19 +6559,19 @@
         <v>600</v>
       </c>
       <c r="P34">
-        <f>ROUND(K34/35.315, 4)</f>
+        <f t="shared" si="19"/>
         <v>28316.550999999999</v>
       </c>
       <c r="Q34">
-        <f>ROUND(L34/35.315, 4)</f>
+        <f t="shared" si="19"/>
         <v>16.989899999999999</v>
       </c>
       <c r="S34" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>999998.9985649999</v>
       </c>
       <c r="T34" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>599.99831849999987</v>
       </c>
     </row>
@@ -6588,27 +6583,27 @@
         <v>6</v>
       </c>
       <c r="D35" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>988.46684999999991</v>
       </c>
       <c r="E35" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>211.89</v>
       </c>
       <c r="G35" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>988.46684999999991</v>
       </c>
       <c r="H35" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I35" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>211.89</v>
       </c>
       <c r="J35" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -6620,27 +6615,27 @@
         <v>11</v>
       </c>
       <c r="D36" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>988.81999999999994</v>
       </c>
       <c r="E36" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>388.46499999999997</v>
       </c>
       <c r="G36" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>988.81999999999994</v>
       </c>
       <c r="H36" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I36" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>388.46499999999997</v>
       </c>
       <c r="J36" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -6652,27 +6647,27 @@
         <v>17</v>
       </c>
       <c r="D37" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2012.60185</v>
       </c>
       <c r="E37" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>600.35500000000002</v>
       </c>
       <c r="G37" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2012.60185</v>
       </c>
       <c r="H37" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I37" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>600.35500000000002</v>
       </c>
       <c r="J37" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -6684,27 +6679,27 @@
         <v>17</v>
       </c>
       <c r="D38" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2012.9549999999999</v>
       </c>
       <c r="E38" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>600.35500000000002</v>
       </c>
       <c r="G38" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2012.9549999999999</v>
       </c>
       <c r="H38" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I38" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>600.35500000000002</v>
       </c>
       <c r="J38" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -6750,27 +6745,27 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D46" s="6">
-        <f t="shared" ref="D46:D56" si="18">A46*35.315</f>
+        <f t="shared" ref="D46:D56" si="24">A46*35.315</f>
         <v>0</v>
       </c>
       <c r="E46" s="6">
-        <f t="shared" ref="E46:E56" si="19">B46*35.315</f>
+        <f t="shared" ref="E46:E56" si="25">B46*35.315</f>
         <v>0</v>
       </c>
       <c r="G46" s="5">
-        <f t="shared" ref="G46:G56" si="20">D46</f>
+        <f t="shared" ref="G46:G56" si="26">D46</f>
         <v>0</v>
       </c>
       <c r="H46" s="5">
-        <f t="shared" ref="H46:H56" si="21">K46</f>
+        <f t="shared" ref="H46:H56" si="27">K46</f>
         <v>5</v>
       </c>
       <c r="I46" s="2">
-        <f t="shared" ref="I46:I56" si="22">E46</f>
+        <f t="shared" ref="I46:I56" si="28">E46</f>
         <v>0</v>
       </c>
       <c r="J46" s="2">
-        <f t="shared" ref="J46:J56" si="23">L46</f>
+        <f t="shared" ref="J46:J56" si="29">L46</f>
         <v>5</v>
       </c>
       <c r="K46" s="2">
@@ -6791,11 +6786,11 @@
         <v>0.1416</v>
       </c>
       <c r="S46" s="4">
-        <f t="shared" ref="S46" si="24">35.315*P46</f>
+        <f t="shared" ref="S46" si="30">35.315*P46</f>
         <v>5.000604</v>
       </c>
       <c r="T46" s="4">
-        <f t="shared" ref="T46" si="25">35.315*Q46</f>
+        <f t="shared" ref="T46" si="31">35.315*Q46</f>
         <v>5.000604</v>
       </c>
     </row>
@@ -6807,27 +6802,27 @@
         <v>3</v>
       </c>
       <c r="D47" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>35.314999999999998</v>
       </c>
       <c r="E47" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>105.94499999999999</v>
       </c>
       <c r="G47" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>35.314999999999998</v>
       </c>
       <c r="H47" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>50</v>
       </c>
       <c r="I47" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>105.94499999999999</v>
       </c>
       <c r="J47" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>50</v>
       </c>
       <c r="K47" s="2">
@@ -6840,19 +6835,19 @@
         <v>40</v>
       </c>
       <c r="P47">
-        <f t="shared" ref="P47:P52" si="26">ROUND(K47/35.315, 4)</f>
+        <f t="shared" ref="P47:P52" si="32">ROUND(K47/35.315, 4)</f>
         <v>1.4157999999999999</v>
       </c>
       <c r="Q47">
-        <f t="shared" ref="Q47:Q52" si="27">ROUND(L47/35.315, 4)</f>
+        <f t="shared" ref="Q47:Q52" si="33">ROUND(L47/35.315, 4)</f>
         <v>1.4157999999999999</v>
       </c>
       <c r="S47" s="4">
-        <f t="shared" ref="S47:S52" si="28">35.315*P47</f>
+        <f t="shared" ref="S47:S52" si="34">35.315*P47</f>
         <v>49.998976999999996</v>
       </c>
       <c r="T47" s="4">
-        <f t="shared" ref="T47:T52" si="29">35.315*Q47</f>
+        <f t="shared" ref="T47:T52" si="35">35.315*Q47</f>
         <v>49.998976999999996</v>
       </c>
     </row>
@@ -6864,27 +6859,27 @@
         <v>3</v>
       </c>
       <c r="D48" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>105.59184999999999</v>
       </c>
       <c r="E48" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>105.94499999999999</v>
       </c>
       <c r="G48" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>105.59184999999999</v>
       </c>
       <c r="H48" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>100</v>
       </c>
       <c r="I48" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>105.94499999999999</v>
       </c>
       <c r="J48" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>100</v>
       </c>
       <c r="K48" s="2">
@@ -6897,19 +6892,19 @@
         <v>41</v>
       </c>
       <c r="P48">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>2.8317000000000001</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>2.8317000000000001</v>
       </c>
       <c r="S48" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>100.0014855</v>
       </c>
       <c r="T48" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>100.0014855</v>
       </c>
     </row>
@@ -6921,27 +6916,27 @@
         <v>6</v>
       </c>
       <c r="D49" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>105.94499999999999</v>
       </c>
       <c r="E49" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>211.89</v>
       </c>
       <c r="G49" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>105.94499999999999</v>
       </c>
       <c r="H49" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>500</v>
       </c>
       <c r="I49" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>211.89</v>
       </c>
       <c r="J49" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>200</v>
       </c>
       <c r="K49" s="2">
@@ -6954,19 +6949,19 @@
         <v>42</v>
       </c>
       <c r="P49">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>14.158300000000001</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>5.6632999999999996</v>
       </c>
       <c r="S49" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>500.00036449999999</v>
       </c>
       <c r="T49" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>199.99943949999997</v>
       </c>
     </row>
@@ -6978,27 +6973,27 @@
         <v>6</v>
       </c>
       <c r="D50" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>494.05685</v>
       </c>
       <c r="E50" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>211.89</v>
       </c>
       <c r="G50" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>494.05685</v>
       </c>
       <c r="H50" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>1000</v>
       </c>
       <c r="I50" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>211.89</v>
       </c>
       <c r="J50" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>400</v>
       </c>
       <c r="K50" s="2">
@@ -7008,19 +7003,19 @@
         <v>400</v>
       </c>
       <c r="P50">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>28.316600000000001</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>11.326599999999999</v>
       </c>
       <c r="S50" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>1000.000729</v>
       </c>
       <c r="T50" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>399.99887899999993</v>
       </c>
     </row>
@@ -7032,27 +7027,27 @@
         <v>11</v>
       </c>
       <c r="D51" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>494.40999999999997</v>
       </c>
       <c r="E51" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>388.46499999999997</v>
       </c>
       <c r="G51" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>494.40999999999997</v>
       </c>
       <c r="H51" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>2000</v>
       </c>
       <c r="I51" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>388.46499999999997</v>
       </c>
       <c r="J51" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>600</v>
       </c>
       <c r="K51" s="2">
@@ -7062,19 +7057,19 @@
         <v>600</v>
       </c>
       <c r="P51">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>56.633200000000002</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>16.989899999999999</v>
       </c>
       <c r="S51" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>2000.001458</v>
       </c>
       <c r="T51" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>599.99831849999987</v>
       </c>
     </row>
@@ -7086,27 +7081,27 @@
         <v>11</v>
       </c>
       <c r="D52" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>988.46684999999991</v>
       </c>
       <c r="E52" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>388.46499999999997</v>
       </c>
       <c r="G52" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>988.46684999999991</v>
       </c>
       <c r="H52" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>999999</v>
       </c>
       <c r="I52" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>388.46499999999997</v>
       </c>
       <c r="J52" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>600</v>
       </c>
       <c r="K52" s="2">
@@ -7116,19 +7111,19 @@
         <v>600</v>
       </c>
       <c r="P52">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>28316.550999999999</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>16.989899999999999</v>
       </c>
       <c r="S52" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>999998.9985649999</v>
       </c>
       <c r="T52" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>599.99831849999987</v>
       </c>
     </row>
@@ -7140,27 +7135,27 @@
         <v>23</v>
       </c>
       <c r="D53" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>988.81999999999994</v>
       </c>
       <c r="E53" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>812.24499999999989</v>
       </c>
       <c r="G53" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>988.81999999999994</v>
       </c>
       <c r="H53" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="I53" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>812.24499999999989</v>
       </c>
       <c r="J53" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -7172,27 +7167,27 @@
         <v>23</v>
       </c>
       <c r="D54" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>2012.60185</v>
       </c>
       <c r="E54" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>812.24499999999989</v>
       </c>
       <c r="G54" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>2012.60185</v>
       </c>
       <c r="H54" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="I54" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>812.24499999999989</v>
       </c>
       <c r="J54" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -7204,27 +7199,27 @@
         <v>34</v>
       </c>
       <c r="D55" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>2012.9549999999999</v>
       </c>
       <c r="E55" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>1200.71</v>
       </c>
       <c r="G55" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>2012.9549999999999</v>
       </c>
       <c r="H55" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="I55" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>1200.71</v>
       </c>
       <c r="J55" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -7236,27 +7231,27 @@
         <v>34</v>
       </c>
       <c r="D56" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>5014.7299999999996</v>
       </c>
       <c r="E56" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>1200.71</v>
       </c>
       <c r="G56" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>5014.7299999999996</v>
       </c>
       <c r="H56" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="I56" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>1200.71</v>
       </c>
       <c r="J56" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -7310,23 +7305,23 @@
         <v>1181.1024</v>
       </c>
       <c r="E63" s="6">
-        <f t="shared" ref="E63" si="30">B63*35.315</f>
+        <f t="shared" ref="E63" si="36">B63*35.315</f>
         <v>988.81999999999994</v>
       </c>
       <c r="G63" s="9">
-        <f t="shared" ref="G63" si="31">D63</f>
+        <f t="shared" ref="G63" si="37">D63</f>
         <v>1181.1024</v>
       </c>
       <c r="H63" s="9">
-        <f t="shared" ref="H63" si="32">K63</f>
+        <f t="shared" ref="H63" si="38">K63</f>
         <v>1180</v>
       </c>
       <c r="I63" s="2">
-        <f t="shared" ref="I63" si="33">E63</f>
+        <f t="shared" ref="I63" si="39">E63</f>
         <v>988.81999999999994</v>
       </c>
       <c r="J63" s="2">
-        <f t="shared" ref="J63" si="34">L63</f>
+        <f t="shared" ref="J63" si="40">L63</f>
         <v>1000</v>
       </c>
       <c r="K63" s="2">
@@ -7339,19 +7334,19 @@
         <v>48</v>
       </c>
       <c r="P63">
-        <f>ROUND(K63*3.28084, 4)</f>
-        <v>3871.3912</v>
+        <f>ROUND(K63/3.28084, 4)</f>
+        <v>359.66399999999999</v>
       </c>
       <c r="Q63">
         <f>ROUND(L63/35.315, 4)</f>
         <v>28.316600000000001</v>
       </c>
       <c r="S63" s="4">
-        <f>P63/3.28084</f>
-        <v>1180</v>
+        <f>P63*3.28084</f>
+        <v>1180.0000377599999</v>
       </c>
       <c r="T63" s="4">
-        <f t="shared" ref="T63" si="35">35.315*Q63</f>
+        <f t="shared" ref="T63" si="41">35.315*Q63</f>
         <v>1000.000729</v>
       </c>
     </row>
@@ -7363,27 +7358,27 @@
         <v>105</v>
       </c>
       <c r="D64" s="6">
-        <f t="shared" ref="D64:D65" si="36">A64*3.28084</f>
+        <f t="shared" ref="D64:D65" si="42">A64*3.28084</f>
         <v>1286.0892799999999</v>
       </c>
       <c r="E64" s="6">
-        <f t="shared" ref="E64:E65" si="37">B64*35.315</f>
+        <f t="shared" ref="E64:E65" si="43">B64*35.315</f>
         <v>3708.0749999999998</v>
       </c>
       <c r="G64" s="9">
-        <f t="shared" ref="G64:G65" si="38">D64</f>
+        <f t="shared" ref="G64:G65" si="44">D64</f>
         <v>1286.0892799999999</v>
       </c>
       <c r="H64" s="9">
-        <f t="shared" ref="H64:H65" si="39">K64</f>
+        <f t="shared" ref="H64:H65" si="45">K64</f>
         <v>1285</v>
       </c>
       <c r="I64" s="2">
-        <f t="shared" ref="I64:I65" si="40">E64</f>
+        <f t="shared" ref="I64:I65" si="46">E64</f>
         <v>3708.0749999999998</v>
       </c>
       <c r="J64" s="2">
-        <f t="shared" ref="J64:J65" si="41">L64</f>
+        <f t="shared" ref="J64:J65" si="47">L64</f>
         <v>3700</v>
       </c>
       <c r="K64" s="2">
@@ -7396,19 +7391,19 @@
         <v>49</v>
       </c>
       <c r="P64">
-        <f t="shared" ref="P64:P65" si="42">ROUND(K64*3.28084, 4)</f>
-        <v>4215.8793999999998</v>
+        <f t="shared" ref="P64:P65" si="48">ROUND(K64/3.28084, 4)</f>
+        <v>391.66800000000001</v>
       </c>
       <c r="Q64">
-        <f t="shared" ref="Q64:Q65" si="43">ROUND(L64/35.315, 4)</f>
+        <f t="shared" ref="Q64:Q65" si="49">ROUND(L64/35.315, 4)</f>
         <v>104.7713</v>
       </c>
       <c r="S64" s="4">
-        <f t="shared" ref="S64:S65" si="44">P64/3.28084</f>
-        <v>1285</v>
+        <f t="shared" ref="S64:S65" si="50">P64*3.28084</f>
+        <v>1285.0000411200001</v>
       </c>
       <c r="T64" s="4">
-        <f t="shared" ref="T64:T65" si="45">35.315*Q64</f>
+        <f t="shared" ref="T64:T65" si="51">35.315*Q64</f>
         <v>3699.9984594999996</v>
       </c>
     </row>
@@ -7420,27 +7415,27 @@
         <v>105</v>
       </c>
       <c r="D65" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>1361.5486000000001</v>
       </c>
       <c r="E65" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>3708.0749999999998</v>
       </c>
       <c r="G65" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>1361.5486000000001</v>
       </c>
       <c r="H65" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>1362</v>
       </c>
       <c r="I65" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>3708.0749999999998</v>
       </c>
       <c r="J65" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>3700</v>
       </c>
       <c r="K65" s="2">
@@ -7453,19 +7448,19 @@
         <v>15</v>
       </c>
       <c r="P65">
-        <f t="shared" si="42"/>
-        <v>4468.5041000000001</v>
+        <f t="shared" si="48"/>
+        <v>415.13760000000002</v>
       </c>
       <c r="Q65">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>104.7713</v>
       </c>
       <c r="S65" s="4">
-        <f t="shared" si="44"/>
-        <v>1362.0000060959999</v>
+        <f t="shared" si="50"/>
+        <v>1362.000043584</v>
       </c>
       <c r="T65" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>3699.9984594999996</v>
       </c>
     </row>
@@ -7496,10 +7491,10 @@
         <v>51</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P70" t="str">
         <f>A70</f>
@@ -7568,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="T71" s="4">
-        <f t="shared" ref="T71" si="46">35.315*Q71</f>
+        <f t="shared" ref="T71" si="52">35.315*Q71</f>
         <v>1000.000729</v>
       </c>
     </row>
@@ -7580,23 +7575,23 @@
         <v>28</v>
       </c>
       <c r="D72">
-        <f t="shared" ref="D72:D87" si="47">A72</f>
+        <f t="shared" ref="D72:D87" si="53">A72</f>
         <v>32</v>
       </c>
       <c r="E72">
-        <f t="shared" ref="E72:E87" si="48">MONTH(D72)</f>
+        <f t="shared" ref="E72:E87" si="54">MONTH(D72)</f>
         <v>2</v>
       </c>
       <c r="F72">
-        <f t="shared" ref="F72:F87" si="49">DAY(D72)</f>
+        <f t="shared" ref="F72:F87" si="55">DAY(D72)</f>
         <v>1</v>
       </c>
       <c r="G72" s="11">
-        <f t="shared" ref="G72:G87" si="50">I72</f>
+        <f t="shared" ref="G72:G87" si="56">I72</f>
         <v>43862</v>
       </c>
       <c r="H72" s="5">
-        <f t="shared" ref="H72:H87" si="51">B72*35.315</f>
+        <f t="shared" ref="H72:H87" si="57">B72*35.315</f>
         <v>988.81999999999994</v>
       </c>
       <c r="I72" s="3">
@@ -7606,27 +7601,27 @@
         <v>1000</v>
       </c>
       <c r="N72">
-        <f t="shared" ref="N72:N82" si="52">MONTH(I72)</f>
+        <f t="shared" ref="N72:N82" si="58">MONTH(I72)</f>
         <v>2</v>
       </c>
       <c r="O72">
-        <f t="shared" ref="O72:O82" si="53">DAY(I72)</f>
+        <f t="shared" ref="O72:O82" si="59">DAY(I72)</f>
         <v>1</v>
       </c>
       <c r="P72" s="1">
-        <f t="shared" ref="P72:P82" si="54">DATE(0,N72,O72)</f>
+        <f t="shared" ref="P72:P82" si="60">DATE(0,N72,O72)</f>
         <v>32</v>
       </c>
       <c r="Q72">
-        <f t="shared" ref="Q72:Q82" si="55">ROUND(J72/35.315, 4)</f>
+        <f t="shared" ref="Q72:Q82" si="61">ROUND(J72/35.315, 4)</f>
         <v>28.316600000000001</v>
       </c>
       <c r="S72" s="10">
-        <f t="shared" ref="S72:S82" si="56">P72</f>
+        <f t="shared" ref="S72:S82" si="62">P72</f>
         <v>32</v>
       </c>
       <c r="T72" s="4">
-        <f t="shared" ref="T72:T82" si="57">35.315*Q72</f>
+        <f t="shared" ref="T72:T82" si="63">35.315*Q72</f>
         <v>1000.000729</v>
       </c>
     </row>
@@ -7638,23 +7633,23 @@
         <v>28</v>
       </c>
       <c r="D73">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>59.9</v>
       </c>
       <c r="E73">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>2</v>
       </c>
       <c r="F73">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>28</v>
       </c>
       <c r="G73" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>43891</v>
       </c>
       <c r="H73" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>988.81999999999994</v>
       </c>
       <c r="I73" s="3">
@@ -7664,27 +7659,27 @@
         <v>900</v>
       </c>
       <c r="N73">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>3</v>
       </c>
       <c r="O73">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="P73" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>61</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>25.4849</v>
       </c>
       <c r="S73" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>61</v>
       </c>
       <c r="T73" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>899.99924349999992</v>
       </c>
     </row>
@@ -7696,23 +7691,23 @@
         <v>25</v>
       </c>
       <c r="D74">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>60</v>
       </c>
       <c r="E74">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>2</v>
       </c>
       <c r="F74">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>29</v>
       </c>
       <c r="G74" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>43922</v>
       </c>
       <c r="H74" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>882.875</v>
       </c>
       <c r="I74" s="3">
@@ -7722,27 +7717,27 @@
         <v>800</v>
       </c>
       <c r="N74">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>4</v>
       </c>
       <c r="O74">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="P74" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>92</v>
       </c>
       <c r="Q74">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>22.653300000000002</v>
       </c>
       <c r="S74" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>92</v>
       </c>
       <c r="T74" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>800.00128949999998</v>
       </c>
     </row>
@@ -7754,23 +7749,23 @@
         <v>25</v>
       </c>
       <c r="D75">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>90.9</v>
       </c>
       <c r="E75">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>3</v>
       </c>
       <c r="F75">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>30</v>
       </c>
       <c r="G75" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>43952</v>
       </c>
       <c r="H75" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>882.875</v>
       </c>
       <c r="I75" s="3">
@@ -7780,27 +7775,27 @@
         <v>800</v>
       </c>
       <c r="N75">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>5</v>
       </c>
       <c r="O75">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="P75" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>122</v>
       </c>
       <c r="Q75">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>22.653300000000002</v>
       </c>
       <c r="S75" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>122</v>
       </c>
       <c r="T75" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>800.00128949999998</v>
       </c>
     </row>
@@ -7812,23 +7807,23 @@
         <v>23</v>
       </c>
       <c r="D76">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>91</v>
       </c>
       <c r="E76">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>3</v>
       </c>
       <c r="F76">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>31</v>
       </c>
       <c r="G76" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>43983</v>
       </c>
       <c r="H76" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>812.24499999999989</v>
       </c>
       <c r="I76" s="3">
@@ -7838,27 +7833,27 @@
         <v>500</v>
       </c>
       <c r="N76">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>6</v>
       </c>
       <c r="O76">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="P76" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>153</v>
       </c>
       <c r="Q76">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>14.158300000000001</v>
       </c>
       <c r="S76" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>153</v>
       </c>
       <c r="T76" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>500.00036449999999</v>
       </c>
     </row>
@@ -7870,23 +7865,23 @@
         <v>23</v>
       </c>
       <c r="D77">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>121</v>
       </c>
       <c r="E77">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>4</v>
       </c>
       <c r="F77">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>30</v>
       </c>
       <c r="G77" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>44013</v>
       </c>
       <c r="H77" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>812.24499999999989</v>
       </c>
       <c r="I77" s="3">
@@ -7896,27 +7891,27 @@
         <v>300</v>
       </c>
       <c r="N77">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>7</v>
       </c>
       <c r="O77">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="P77" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>183</v>
       </c>
       <c r="Q77">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>8.4949999999999992</v>
       </c>
       <c r="S77" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>183</v>
       </c>
       <c r="T77" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>300.00092499999994</v>
       </c>
     </row>
@@ -7928,23 +7923,23 @@
         <v>23</v>
       </c>
       <c r="D78">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>151.9</v>
       </c>
       <c r="E78">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>5</v>
       </c>
       <c r="F78">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>30</v>
       </c>
       <c r="G78" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>44044</v>
       </c>
       <c r="H78" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>812.24499999999989</v>
       </c>
       <c r="I78" s="3">
@@ -7954,27 +7949,27 @@
         <v>300</v>
       </c>
       <c r="N78">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>8</v>
       </c>
       <c r="O78">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="P78" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>214</v>
       </c>
       <c r="Q78">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>8.4949999999999992</v>
       </c>
       <c r="S78" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>214</v>
       </c>
       <c r="T78" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>300.00092499999994</v>
       </c>
     </row>
@@ -7986,23 +7981,23 @@
         <v>14</v>
       </c>
       <c r="D79">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>152</v>
       </c>
       <c r="E79">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>5</v>
       </c>
       <c r="F79">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>31</v>
       </c>
       <c r="G79" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>44075</v>
       </c>
       <c r="H79" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>494.40999999999997</v>
       </c>
       <c r="I79" s="3">
@@ -8012,27 +8007,27 @@
         <v>300</v>
       </c>
       <c r="N79">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>9</v>
       </c>
       <c r="O79">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="P79" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>245</v>
       </c>
       <c r="Q79">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>8.4949999999999992</v>
       </c>
       <c r="S79" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>245</v>
       </c>
       <c r="T79" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>300.00092499999994</v>
       </c>
     </row>
@@ -8044,23 +8039,23 @@
         <v>14</v>
       </c>
       <c r="D80">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>181.9</v>
       </c>
       <c r="E80">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>6</v>
       </c>
       <c r="F80">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>29</v>
       </c>
       <c r="G80" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>44105</v>
       </c>
       <c r="H80" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>494.40999999999997</v>
       </c>
       <c r="I80" s="3">
@@ -8070,27 +8065,27 @@
         <v>300</v>
       </c>
       <c r="N80">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>10</v>
       </c>
       <c r="O80">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="P80" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>275</v>
       </c>
       <c r="Q80">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>8.4949999999999992</v>
       </c>
       <c r="S80" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>275</v>
       </c>
       <c r="T80" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>300.00092499999994</v>
       </c>
     </row>
@@ -8102,23 +8097,23 @@
         <v>8</v>
       </c>
       <c r="D81">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>182</v>
       </c>
       <c r="E81">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>6</v>
       </c>
       <c r="F81">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>30</v>
       </c>
       <c r="G81" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>44136</v>
       </c>
       <c r="H81" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>282.52</v>
       </c>
       <c r="I81" s="3">
@@ -8128,27 +8123,27 @@
         <v>1000</v>
       </c>
       <c r="N81">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>11</v>
       </c>
       <c r="O81">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="P81" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>306</v>
       </c>
       <c r="Q81">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>28.316600000000001</v>
       </c>
       <c r="S81" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>306</v>
       </c>
       <c r="T81" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>1000.000729</v>
       </c>
     </row>
@@ -8160,23 +8155,23 @@
         <v>8</v>
       </c>
       <c r="D82">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>213</v>
       </c>
       <c r="E82">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>7</v>
       </c>
       <c r="F82">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>31</v>
       </c>
       <c r="G82" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>44166</v>
       </c>
       <c r="H82" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>282.52</v>
       </c>
       <c r="I82" s="3">
@@ -8186,27 +8181,27 @@
         <v>1000</v>
       </c>
       <c r="N82">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>12</v>
       </c>
       <c r="O82">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="P82" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>336</v>
       </c>
       <c r="Q82">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>28.316600000000001</v>
       </c>
       <c r="S82" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>336</v>
       </c>
       <c r="T82" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>1000.000729</v>
       </c>
     </row>
@@ -8218,23 +8213,23 @@
         <v>8</v>
       </c>
       <c r="D83">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>244</v>
       </c>
       <c r="E83">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>8</v>
       </c>
       <c r="F83">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>31</v>
       </c>
       <c r="G83" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="H83" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>282.52</v>
       </c>
       <c r="I83" s="3"/>
@@ -8247,23 +8242,23 @@
         <v>8</v>
       </c>
       <c r="D84">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>274</v>
       </c>
       <c r="E84">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>9</v>
       </c>
       <c r="F84">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>30</v>
       </c>
       <c r="G84" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="H84" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>282.52</v>
       </c>
       <c r="I84" s="3"/>
@@ -8276,23 +8271,23 @@
         <v>8</v>
       </c>
       <c r="D85">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>304.89999999999998</v>
       </c>
       <c r="E85">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>10</v>
       </c>
       <c r="F85">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>30</v>
       </c>
       <c r="G85" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="H85" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>282.52</v>
       </c>
       <c r="I85" s="3"/>
@@ -8305,23 +8300,23 @@
         <v>28</v>
       </c>
       <c r="D86">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>305</v>
       </c>
       <c r="E86">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>10</v>
       </c>
       <c r="F86">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>31</v>
       </c>
       <c r="G86" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="H86" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>988.81999999999994</v>
       </c>
       <c r="I86" s="10"/>
@@ -8334,23 +8329,23 @@
         <v>28</v>
       </c>
       <c r="D87">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>335</v>
       </c>
       <c r="E87">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="F87">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>30</v>
       </c>
       <c r="G87" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="H87" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>988.81999999999994</v>
       </c>
       <c r="I87" s="10"/>
@@ -8380,10 +8375,10 @@
         <v>56</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P92" t="str">
         <f>A92</f>
@@ -8402,23 +8397,23 @@
         <v>1.417</v>
       </c>
       <c r="D93">
-        <f t="shared" ref="D93:D94" si="58">A93</f>
+        <f t="shared" ref="D93:D94" si="64">A93</f>
         <v>1</v>
       </c>
       <c r="E93">
-        <f t="shared" ref="E93:E94" si="59">MONTH(D93)</f>
+        <f t="shared" ref="E93:E94" si="65">MONTH(D93)</f>
         <v>1</v>
       </c>
       <c r="F93">
-        <f t="shared" ref="F93:F94" si="60">DAY(D93)</f>
+        <f t="shared" ref="F93:F94" si="66">DAY(D93)</f>
         <v>1</v>
       </c>
       <c r="G93" s="12">
-        <f t="shared" ref="G93:G94" si="61">I93</f>
+        <f t="shared" ref="G93:G94" si="67">I93</f>
         <v>43831</v>
       </c>
       <c r="H93" s="9">
-        <f t="shared" ref="H93:H94" si="62">B93*35.315</f>
+        <f t="shared" ref="H93:H94" si="68">B93*35.315</f>
         <v>50.041354999999996</v>
       </c>
       <c r="I93" s="3">
@@ -8451,7 +8446,7 @@
         <v>1</v>
       </c>
       <c r="T93" s="4">
-        <f t="shared" ref="T93" si="63">35.315*Q93</f>
+        <f t="shared" ref="T93" si="69">35.315*Q93</f>
         <v>49.998976999999996</v>
       </c>
     </row>
@@ -8463,23 +8458,23 @@
         <v>1.417</v>
       </c>
       <c r="D94">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>365</v>
       </c>
       <c r="E94">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>12</v>
       </c>
       <c r="F94">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>30</v>
       </c>
       <c r="G94" s="12">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="H94" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>50.041354999999996</v>
       </c>
       <c r="K94" s="2" t="s">
@@ -8511,10 +8506,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65E2099-1C04-42F3-87BE-C2C1225ECFBB}">
-  <dimension ref="A2:E22"/>
+  <dimension ref="A2:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8717,7 +8712,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>38</v>
@@ -8726,12 +8721,12 @@
         <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -8740,41 +8735,244 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B18" t="s">
         <v>56</v>
       </c>
       <c r="C18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>87</v>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C39" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C40" s="15" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
